--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888776.3842138365</v>
+        <v>-891325.0413998575</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>21.3048648367279</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>238.3258469238173</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>87.91631648068136</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>251.5023521518534</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>129.6365056585772</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>153.0471678767955</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>211.7242073753397</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>81.2788737961841</v>
+        <v>73.8956021062972</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>44.22505431643797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>127.2108658268566</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.6761271205438</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238241</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998758</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="G16" t="n">
-        <v>98.45284414233009</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>147.6895341487371</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>207.0967504439653</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>139.4837053550532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678006</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703258</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428088</v>
+        <v>83.06560892428146</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>20.43112068613195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869786</v>
+        <v>164.2607468869784</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036691</v>
+        <v>151.6755878036689</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232537</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>52.97777888981368</v>
+        <v>130.8627293516103</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>55.15928926146115</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973102</v>
+        <v>149.95290499731</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512652</v>
+        <v>124.723479551265</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360685</v>
+        <v>65.69460302360666</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516301</v>
+        <v>50.80401341516281</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066859</v>
+        <v>165.4550527066857</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323296</v>
+        <v>201.8342170323294</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942855</v>
+        <v>270.6132410942853</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288693</v>
+        <v>236.5664100288691</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416323</v>
+        <v>270.9517650416321</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940785</v>
+        <v>210.1384220940783</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571361</v>
+        <v>203.0134200571359</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261738</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,7 +3955,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694471</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.569348694471</v>
+        <v>1586.73908243559</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.303650087721</v>
+        <v>1228.47338382884</v>
       </c>
       <c r="E2" t="n">
-        <v>1133.303650087721</v>
+        <v>842.6851312305953</v>
       </c>
       <c r="F2" t="n">
-        <v>722.3177452981136</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
-        <v>307.2452951431101</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758593</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2078.679253373407</v>
+        <v>883.4114536130576</v>
       </c>
       <c r="C4" t="n">
-        <v>1909.743070445501</v>
+        <v>714.4752706851507</v>
       </c>
       <c r="D4" t="n">
-        <v>1759.626431033165</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450771</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>3071.563041657802</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>2816.878553451916</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W4" t="n">
-        <v>2527.461383414955</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X4" t="n">
-        <v>2299.471832516937</v>
+        <v>1285.852497586827</v>
       </c>
       <c r="Y4" t="n">
-        <v>2078.679253373407</v>
+        <v>1065.059918443297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.52688261361</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1792.126722677732</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,31 +4665,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5839474470786</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U7" t="n">
-        <v>1713.431712355826</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1713.431712355826</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.014542318866</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.024991420848</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2324122773183</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.0385327017424</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1023497738355</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1023497738355</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.6869975319821</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,46 +5042,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179088</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356196</v>
+        <v>593.611586390002</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232839</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408908</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429804</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718576</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681615</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1030.918378293891</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C16" t="n">
-        <v>861.9821953659844</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D16" t="n">
-        <v>711.8655559536486</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E16" t="n">
-        <v>563.9524623712555</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="F16" t="n">
-        <v>417.0625148733451</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.359422267661</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.566843124131</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958741</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679672</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5665,7 +5665,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261139</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851665</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133955</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154062</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400704</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121635</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121635</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121635</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121635</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703102</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270435</v>
+        <v>177.721318527044</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>343.099465685178</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>343.099465685178</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>343.099465685178</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539504</v>
+        <v>778.7344347539538</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703057997</v>
+        <v>625.5267703058033</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732202</v>
+        <v>625.5267703058033</v>
       </c>
       <c r="E34" t="n">
-        <v>437.6257414037115</v>
+        <v>493.3421952031667</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037115</v>
+        <v>437.6257414037109</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983476</v>
+        <v>286.1581605983473</v>
       </c>
       <c r="H34" t="n">
-        <v>160.174847920302</v>
+        <v>160.1748479203018</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403048</v>
+        <v>189.468202440305</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278525</v>
+        <v>466.5729859278528</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658016</v>
+        <v>872.3871010658021</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758845</v>
+        <v>1309.812324758846</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380863</v>
+        <v>1742.637717380864</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051857</v>
+        <v>2127.582519051858</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587425</v>
+        <v>2435.673495587426</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276333</v>
+        <v>2570.287251276335</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008492</v>
+        <v>2518.970066008494</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143153</v>
+        <v>2351.843750143154</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.97080364585</v>
+        <v>2147.970803645852</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469804</v>
+        <v>1874.624095469806</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743673</v>
+        <v>1635.668125743676</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186469</v>
+        <v>1361.979474186472</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768208</v>
+        <v>1149.718441768211</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044338</v>
+        <v>944.6543811044371</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942665</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656827</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,37 +7327,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380731</v>
@@ -7813,43 +7813,43 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>385.5711809049835</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>56.28191746350316</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292599</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>60.699156537531</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>34.70948605375939</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>26.93934589766852</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1584408891613</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>144.5956654067401</v>
       </c>
       <c r="G16" t="n">
-        <v>67.07129414993875</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.92593886947523</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>79.42624789262567</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>27.76311574357461</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194309</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194301</v>
+        <v>57.22910392194242</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>146.8157004124959</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.0442397232535</v>
       </c>
       <c r="E34" t="n">
-        <v>77.88495046179681</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279726</v>
+        <v>74.69052546651122</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.238049662788398e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1202130.169877994</v>
+        <v>1202130.169877993</v>
       </c>
     </row>
     <row r="6">
@@ -26317,19 +26317,19 @@
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
+        <v>221965.3149147516</v>
+      </c>
+      <c r="F2" t="n">
         <v>221965.3149147517</v>
-      </c>
-      <c r="F2" t="n">
-        <v>221965.3149147516</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26341,10 +26341,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624254</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
@@ -26353,7 +26353,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596695</v>
+        <v>12456.9866359671</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.7592931767</v>
+        <v>92025.75929317648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214072</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>17510.63193648108</v>
+        <v>17510.63193648117</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261340.46081712</v>
+        <v>-1261688.079746926</v>
       </c>
       <c r="C6" t="n">
-        <v>26278.59119811522</v>
+        <v>26278.59119811523</v>
       </c>
       <c r="D6" t="n">
         <v>26278.59119811523</v>
       </c>
       <c r="E6" t="n">
-        <v>-216956.5968983289</v>
+        <v>-216991.3348237647</v>
       </c>
       <c r="F6" t="n">
-        <v>108455.8649090263</v>
+        <v>108421.126983591</v>
       </c>
       <c r="G6" t="n">
-        <v>108455.8649090264</v>
+        <v>108421.1269835908</v>
       </c>
       <c r="H6" t="n">
-        <v>108455.8649090266</v>
+        <v>108421.1269835908</v>
       </c>
       <c r="I6" t="n">
-        <v>108455.8649090265</v>
+        <v>108421.1269835907</v>
       </c>
       <c r="J6" t="n">
-        <v>-109075.3374882509</v>
+        <v>-109110.0754136867</v>
       </c>
       <c r="K6" t="n">
-        <v>108455.8649090264</v>
+        <v>108421.1269835907</v>
       </c>
       <c r="L6" t="n">
-        <v>92016.23085419636</v>
+        <v>92003.7667682848</v>
       </c>
       <c r="M6" t="n">
-        <v>10218.83212067428</v>
+        <v>10218.83212067472</v>
       </c>
       <c r="N6" t="n">
         <v>102244.5914138511</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197081081</v>
+        <v>8.71341419708083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>235.6363861124303</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>228.8832021954663</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>74.48763083027322</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.9590648598695</v>
+        <v>312.3423365497564</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>102.2089083301312</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>98.49878956218059</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.816298607236514e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495868</v>
+        <v>15.57123329495888</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,19 +35966,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791205</v>
+        <v>96.61771655791223</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045936</v>
+        <v>279.9038217045938</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140901</v>
+        <v>409.9132476140903</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960038</v>
+        <v>441.843660296004</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848661</v>
+        <v>437.1973662848663</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010041</v>
+        <v>388.8331330010043</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015836</v>
+        <v>311.2030066015838</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.973490594857</v>
+        <v>135.9734905948572</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
